--- a/mySkills/translate/glossary/常用注意要点清单.xlsx
+++ b/mySkills/translate/glossary/常用注意要点清单.xlsx
@@ -10,15 +10,16 @@
     <sheet name="注意要点_中英" sheetId="1" r:id="rId1"/>
     <sheet name="翻译省略" sheetId="2" r:id="rId2"/>
     <sheet name="TDB翻译说明（对象数据）" sheetId="3" r:id="rId3"/>
-    <sheet name="翻译简写说明" sheetId="4" r:id="rId4"/>
-    <sheet name="要注意的Comment（研发人员加）" sheetId="5" r:id="rId5"/>
-    <sheet name="要注意的备注（翻译人员加）" sheetId="6" r:id="rId6"/>
-    <sheet name="后续版本处理" sheetId="7" r:id="rId7"/>
-    <sheet name="要注意的模块" sheetId="8" r:id="rId8"/>
-    <sheet name="平台修改词条流程" sheetId="9" r:id="rId9"/>
-    <sheet name="注意要点_中文" sheetId="10" r:id="rId10"/>
-    <sheet name="平台的模块与代码的对应关系" sheetId="11" r:id="rId11"/>
-    <sheet name="常用公式(送翻前手动过滤)" sheetId="12" r:id="rId12"/>
+    <sheet name="翻译规则" sheetId="4" r:id="rId4"/>
+    <sheet name="翻译简写说明" sheetId="5" r:id="rId5"/>
+    <sheet name="要注意的Comment（研发人员加）" sheetId="6" r:id="rId6"/>
+    <sheet name="要注意的备注（翻译人员加）" sheetId="7" r:id="rId7"/>
+    <sheet name="后续版本处理" sheetId="8" r:id="rId8"/>
+    <sheet name="要注意的模块" sheetId="9" r:id="rId9"/>
+    <sheet name="平台修改词条流程" sheetId="10" r:id="rId10"/>
+    <sheet name="注意要点_中文" sheetId="11" r:id="rId11"/>
+    <sheet name="平台的模块与代码的对应关系" sheetId="12" r:id="rId12"/>
+    <sheet name="常用公式(送翻前手动过滤)" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -4195,6 +4196,12 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>翻译后结果中若有“ &amp; ”，修改为“ &amp;&amp; ”，原因：QT会将单个&amp;转义为_</t>
+  </si>
+  <si>
+    <t>杨海潮：QT的tr获取到的结果是包含Verify&amp;Loader，但是用了QT的组件，QT的组件应该是误认为是快捷键了，所以显示不正常，这个地方翻译的结果包含两个&amp;&amp;就可以了</t>
   </si>
   <si>
     <t>序号</t>
@@ -13255,6 +13262,547 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
+    <col min="1" max="1" width="174.6650390625" customWidth="1" style="18"/>
+    <col min="2" max="2" width="15.0205078125" customWidth="1"/>
+    <col min="6" max="6" width="15.8173828125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.5" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="2" ht="13.5" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1">
+      <c r="A3" s="18" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="4" ht="13.5" customHeight="1">
+      <c r="A4" s="18" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" customHeight="1">
+      <c r="A5" s="18" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="72" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="8" ht="13.5" customHeight="1">
+      <c r="A8" s="72"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="72" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="10" ht="189.75" customHeight="1">
+      <c r="A10" s="196" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="11" ht="162.75" customHeight="1">
+      <c r="A11" s="197" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B11" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="13.5" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="13" ht="13.5" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="14" ht="13.5" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="16" ht="13.5" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="17" ht="13.5" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="18" ht="13.5" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="23" ht="13.5" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="25" ht="95.25" customHeight="1">
+      <c r="A25" s="198" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="29" ht="41.25" customHeight="1">
+      <c r="A29" s="199" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="30" ht="54.75" customHeight="1">
+      <c r="A30" s="200" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="31" ht="13.5" customHeight="1">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" ht="27.75" customHeight="1">
+      <c r="A32" s="201" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="33" ht="27.75" customHeight="1">
+      <c r="A33" s="202" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="18" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="18" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="74" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="18" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="18" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="18" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="18" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="64" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="A46" s="64" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" customHeight="1">
+      <c r="A47" s="64" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" customHeight="1">
+      <c r="A48" s="64" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" customHeight="1">
+      <c r="A49" s="18" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" customHeight="1">
+      <c r="A50" s="18" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" customHeight="1">
+      <c r="A52" s="18" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" customHeight="1">
+      <c r="A54" s="203" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B54" s="72" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C54" s="72" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D54" s="72" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E54" s="72" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F54" s="72" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G54" s="72" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" customHeight="1">
+      <c r="A55" s="5"/>
+      <c r="B55" s="72" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="72" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G55" s="72" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" customHeight="1">
+      <c r="A56" s="5"/>
+      <c r="B56" s="72" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="72" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G56" s="72" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" customHeight="1">
+      <c r="A57" s="5"/>
+      <c r="B57" s="72" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="72" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G57" s="72" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="A58" s="5"/>
+      <c r="B58" s="72" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="72" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G58" s="72" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="A59" s="5"/>
+      <c r="B59" s="72" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="72" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G59" s="72" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="60" ht="23.795454545454547" customHeight="1">
+      <c r="A60" s="5"/>
+      <c r="B60" s="72" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="72" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G60" s="72" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="61" ht="13.5" customHeight="1">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="62" ht="41.25" customHeight="1">
+      <c r="A62" s="204" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E62" s="36" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F62" s="36" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G62" s="36" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H62" s="36" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H63" s="36" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="A64" s="5"/>
+      <c r="B64" s="36" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H64" s="36" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="65" ht="13.5" customHeight="1">
+      <c r="A65" s="5"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+    </row>
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" s="18" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B66" s="72"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="72"/>
+    </row>
+    <row r="67" ht="13.5" customHeight="1">
+      <c r="B67" s="72"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+    </row>
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="A68" s="18" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B68" s="72"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="72"/>
+    </row>
+    <row r="72" ht="216.75" customHeight="1">
+      <c r="A72" s="205" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="74" ht="54.75" customHeight="1">
+      <c r="A74" s="206" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="A77" s="18" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="81" ht="68.25" customHeight="1">
+      <c r="A81" s="207" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B81" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="90" ht="13.5" customHeight="1">
+      <c r="A90" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="91" ht="95.25" customHeight="1">
+      <c r="A91" s="208" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="92" ht="13.5" customHeight="1">
+      <c r="A92" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="93" ht="13.5" customHeight="1">
+      <c r="A93" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="94" ht="13.5" customHeight="1">
+      <c r="A94" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="95" ht="13.5" customHeight="1">
+      <c r="A95" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="96" ht="13.5" customHeight="1">
+      <c r="A96" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="97" ht="13.5" customHeight="1">
+      <c r="A97" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="98" ht="13.5" customHeight="1">
+      <c r="A98" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="99" ht="13.5" customHeight="1">
+      <c r="A99" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="100" ht="13.5" customHeight="1">
+      <c r="A100" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="101" ht="13.5" customHeight="1">
+      <c r="A101" s="5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A54:A60"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
+  <cols>
     <col min="1" max="1" width="27.3310546875" customWidth="1" style="17"/>
     <col min="2" max="2" width="21.498046875" customWidth="1" style="27"/>
     <col min="3" max="3" width="117.1640625" customWidth="1" style="18"/>
@@ -13274,25 +13822,25 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="C2" s="15"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="C3" s="15"/>
     </row>
     <row r="4" ht="27.75" customHeight="1">
       <c r="A4" s="209" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="C4" s="15"/>
     </row>
@@ -13304,23 +13852,23 @@
         <v>15</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
@@ -13331,7 +13879,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -13380,7 +13928,7 @@
         <v>451</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -13396,61 +13944,61 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="17" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="16" ht="41.25" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="17" ht="41.25" customHeight="1">
       <c r="A17" s="17" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="18" ht="27.75" customHeight="1">
       <c r="A18" s="17" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="19" ht="41.25" customHeight="1">
       <c r="A19" s="17" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="C19" s="210" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="20" ht="27.75" customHeight="1">
       <c r="A20" s="17" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="C20" s="211" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="21" ht="81.75" customHeight="1">
       <c r="A21" s="17" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="B21" s="27">
         <v/>
@@ -13461,26 +14009,26 @@
     </row>
     <row r="26" s="52" customFormat="1" ht="14.25" customHeight="1">
       <c r="A26" s="68" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="B26" s="69"/>
       <c r="C26" s="70"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="C27" s="5"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
@@ -13488,7 +14036,7 @@
         <v>994</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
@@ -13496,7 +14044,7 @@
         <v>994</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
@@ -13504,26 +14052,26 @@
         <v>994</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="32" ht="41.25" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="C33" s="5"/>
     </row>
@@ -13543,7 +14091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13566,141 +14114,141 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="42" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="2" s="62" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="42" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="F2" s="73" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="G2" s="76" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="H2" s="79" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="I2" s="79" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1">
       <c r="A3" s="48" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="48" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1">
       <c r="A5" s="48" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1">
       <c r="A6" s="41"/>
       <c r="D6" s="27" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1">
       <c r="A7" s="41" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="41"/>
       <c r="B8" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>1309</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>1307</v>
-      </c>
       <c r="F8" s="27" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="48" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="10" ht="53.25" customHeight="1">
       <c r="A10" s="41" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="F10" s="212" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="H10" s="78" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="I10" s="78">
         <v/>
@@ -13709,13 +14257,13 @@
     <row r="11" ht="42.75" customHeight="1">
       <c r="A11" s="41"/>
       <c r="D11" s="5" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="I11" s="78">
         <v/>
@@ -13741,18 +14289,18 @@
     <row r="21" ht="34.5" customHeight="1"/>
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="42" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="48" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -13760,16 +14308,16 @@
     </row>
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="48" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -13777,13 +14325,13 @@
     </row>
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="48" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -13791,16 +14339,16 @@
     </row>
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="48" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -13808,16 +14356,16 @@
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="48" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>1332</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>1330</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -13825,13 +14373,13 @@
     </row>
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="48" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -13839,13 +14387,13 @@
     </row>
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="48" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -13853,7 +14401,7 @@
     </row>
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="48" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -13861,7 +14409,7 @@
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="48" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -13869,7 +14417,7 @@
     </row>
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="48" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -13877,7 +14425,7 @@
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="48" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -13885,7 +14433,7 @@
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="48" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -13893,7 +14441,7 @@
     </row>
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="48" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -13901,16 +14449,16 @@
     </row>
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="48" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -13918,20 +14466,20 @@
     </row>
     <row r="38" ht="60" customHeight="1">
       <c r="A38" s="87" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="B38" s="84" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="C38" s="84" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="D38" s="88"/>
       <c r="E38" s="84" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="F38" s="213" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G38" s="84" t="s">
         <v>153</v>
@@ -13940,30 +14488,30 @@
         <v>153</v>
       </c>
       <c r="I38" s="214" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="39" ht="41.25" customHeight="1">
       <c r="A39" s="87" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="C39" s="84" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="D39" s="88"/>
       <c r="E39" s="84" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="F39" s="215" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G39" s="84"/>
       <c r="H39" s="89"/>
       <c r="I39" s="216" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="40" ht="16.5" customHeight="1">
@@ -13983,13 +14531,13 @@
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="48" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -13997,16 +14545,16 @@
     </row>
     <row r="44" ht="27.75" customHeight="1">
       <c r="A44" s="48" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -14014,10 +14562,10 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="48" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -14025,10 +14573,10 @@
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="48" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -14036,19 +14584,19 @@
     </row>
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="48" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -14056,7 +14604,7 @@
     </row>
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="48" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="D51" s="5"/>
       <c r="F51" s="5"/>
@@ -14065,7 +14613,7 @@
     </row>
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="48" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="D52" s="5"/>
       <c r="F52" s="5"/>
@@ -14074,7 +14622,7 @@
     </row>
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="48" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="D53" s="5"/>
       <c r="F53" s="5"/>
@@ -14083,7 +14631,7 @@
     </row>
     <row r="54" ht="27.75" customHeight="1">
       <c r="A54" s="48" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="D54" s="5"/>
       <c r="F54" s="5"/>
@@ -14092,19 +14640,19 @@
     </row>
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="48" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -14112,19 +14660,19 @@
     </row>
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="48" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -14132,19 +14680,19 @@
     </row>
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="48" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
@@ -14152,10 +14700,10 @@
     </row>
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="48" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="D58" s="5"/>
       <c r="F58" s="5"/>
@@ -14164,10 +14712,10 @@
     </row>
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="48" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -14175,10 +14723,10 @@
     </row>
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="48" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -14186,10 +14734,10 @@
     </row>
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="48" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>1383</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>1381</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -14197,10 +14745,10 @@
     </row>
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="48" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -14208,19 +14756,19 @@
     </row>
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="48" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -14228,19 +14776,19 @@
     </row>
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="48" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>1390</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>1388</v>
-      </c>
       <c r="D64" s="27" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -14248,13 +14796,13 @@
     </row>
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="48" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -14262,77 +14810,77 @@
     </row>
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="48" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="48" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="48" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D68" s="27" t="s">
         <v>1397</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>1395</v>
-      </c>
       <c r="E68" s="4" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="F68" s="27" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="48" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="48" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="48" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -14340,10 +14888,10 @@
     </row>
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="48" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="73" ht="16.5" customHeight="1">
@@ -14351,182 +14899,182 @@
         <v>859</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="48" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>1403</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="48" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="48" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="48" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="48" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="48" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="80" ht="54.75" customHeight="1">
       <c r="A80" s="217" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="48" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="82" ht="27.75" customHeight="1">
       <c r="A82" s="48" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="83" ht="16.5" customHeight="1">
       <c r="A83" s="48" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="48" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="48" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="48" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="48" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="88" ht="27.75" customHeight="1">
       <c r="A88" s="48" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="48" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="48" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="48" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="92" ht="81.75" customHeight="1">
       <c r="A92" s="218" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="D92" s="27" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="5" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="94" ht="16.5" customHeight="1">
@@ -14541,16 +15089,16 @@
     </row>
     <row r="96" ht="27.75" customHeight="1">
       <c r="A96" s="27" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="B96" s="219" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="C96" s="220" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
@@ -14587,12 +15135,12 @@
     </row>
     <row r="97" ht="16.5" customHeight="1">
       <c r="A97" s="27" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
       <c r="E97" s="27" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
@@ -14629,21 +15177,21 @@
     </row>
     <row r="98" ht="16.5" customHeight="1">
       <c r="A98" s="48" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="99" ht="16.5" customHeight="1">
       <c r="A99" s="48" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="100" ht="16.5" customHeight="1">
@@ -14651,29 +15199,29 @@
         <v>846</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="48" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="48" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="F102" s="71" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
     </row>
   </sheetData>
@@ -14693,7 +15241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -14707,49 +15255,49 @@
     <row r="1" ht="27.75" customHeight="1">
       <c r="A1" s="82"/>
       <c r="B1" s="82" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="C1" s="82" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="66" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="B2" s="66" t="s">
         <f>IF(LENB(A2)-LEN(A2)&gt;0,"含中文","不含中文")</f>
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="C2" s="66" t="s">
         <f>IF(ISNUMBER(FIND(CHAR(10),A2)),"带换行符","不带换行符")</f>
-        <v>1435</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1">
       <c r="A3" s="66" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="B3" s="66" t="s">
         <f>IF(LENB(A3)-LEN(A3)&gt;0,"含中文","不含中文")</f>
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="C3" s="66" t="s">
         <f>IF(ISNUMBER(FIND(CHAR(10),A3)),"带换行符","不带换行符")</f>
-        <v>1435</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="4" ht="27.75" customHeight="1">
       <c r="A4" s="221" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="B4" s="66" t="s">
         <f>IF(LENB(A4)-LEN(A4)&gt;0,"含中文","不含中文")</f>
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="C4" s="66" t="s">
         <f>IF(ISNUMBER(FIND(CHAR(10),A4)),"带换行符","不带换行符")</f>
-        <v>1439</v>
+        <v>1441</v>
       </c>
     </row>
   </sheetData>
@@ -17419,6 +17967,35 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
   <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.9990234375" defaultRowHeight="16.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="67.7490234375" customWidth="1"/>
+    <col min="2" max="2" width="123.498046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>996</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
+  <sheetPr>
     <tabColor rgb="FFFCC102"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -17437,7 +18014,7 @@
   <sheetData>
     <row r="1" ht="26.25" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -17446,19 +18023,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="2" ht="27.75" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="191" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
@@ -17468,16 +18045,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -17485,16 +18062,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>1004</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>1002</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -17502,31 +18079,31 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>1009</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>1007</v>
-      </c>
       <c r="E6" s="10" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -17534,31 +18111,31 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>1014</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>1012</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -17566,16 +18143,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -17583,16 +18160,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -17601,13 +18178,13 @@
         <v>348</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>349</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -17615,16 +18192,16 @@
         <v>6</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -17632,16 +18209,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -17649,16 +18226,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
@@ -17666,16 +18243,16 @@
         <v>9</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -17683,16 +18260,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
@@ -17700,16 +18277,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
@@ -17717,16 +18294,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
@@ -17734,16 +18311,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
@@ -17751,16 +18328,16 @@
         <v>14</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
@@ -17768,16 +18345,16 @@
         <v>15</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
@@ -17785,16 +18362,16 @@
         <v>16</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
@@ -17802,16 +18379,16 @@
         <v>17</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
@@ -17819,16 +18396,16 @@
         <v>18</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
@@ -17836,16 +18413,16 @@
         <v>19</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
@@ -17853,16 +18430,16 @@
         <v>20</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
@@ -17870,14 +18447,14 @@
         <v>21</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="9" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
@@ -17885,14 +18462,14 @@
         <v>22</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="9" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
@@ -17900,16 +18477,16 @@
         <v>23</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
@@ -17917,16 +18494,16 @@
         <v>24</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
@@ -17934,16 +18511,16 @@
         <v>25</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>145</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
@@ -17951,16 +18528,16 @@
         <v>26</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
@@ -17968,16 +18545,16 @@
         <v>27</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
@@ -17985,16 +18562,16 @@
         <v>28</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
@@ -18002,16 +18579,16 @@
         <v>29</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
@@ -18019,16 +18596,16 @@
         <v>30</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
@@ -18036,16 +18613,16 @@
         <v>31</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
@@ -18053,16 +18630,16 @@
         <v>32</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="39" ht="27.75" customHeight="1">
@@ -18070,13 +18647,13 @@
         <v>32</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="E39" s="8"/>
     </row>
@@ -18085,13 +18662,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="E40" s="8"/>
     </row>
@@ -18100,13 +18677,13 @@
         <v>32</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="E41" s="8"/>
     </row>
@@ -18115,13 +18692,13 @@
         <v>32</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="E42" s="8"/>
     </row>
@@ -18131,7 +18708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
   <sheetPr>
     <tabColor rgb="FFFCC102"/>
@@ -18150,65 +18727,65 @@
   <sheetData>
     <row r="1" ht="27.75" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="B1" s="192" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="2" ht="27.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="B2" s="193" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="3" ht="27.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="5" ht="88.5" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B5" s="194" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="B6" s="5"/>
     </row>
@@ -18217,7 +18794,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="8" ht="16.5" customHeight="1">
@@ -18225,7 +18802,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="9" ht="16.5" customHeight="1">
@@ -18233,7 +18810,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="10" ht="27.75" customHeight="1">
@@ -18241,16 +18818,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="F10" s="4">
         <v/>
       </c>
       <c r="G10" s="4" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1">
@@ -18258,7 +18835,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1">
@@ -18266,7 +18843,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="13" ht="57" customHeight="1">
@@ -18274,7 +18851,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="195" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>153</v>
@@ -18282,7 +18859,7 @@
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="16" ht="45" customHeight="1">
@@ -18295,7 +18872,7 @@
     </row>
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="19" ht="16.5" customHeight="1">
@@ -18320,7 +18897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -18336,7 +18913,7 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="2" ht="27.75" customHeight="1">
@@ -18344,7 +18921,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="3" ht="27.75" customHeight="1">
@@ -18352,7 +18929,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="4" ht="27.75" customHeight="1">
@@ -18360,7 +18937,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="E4" s="4">
         <v/>
@@ -18371,7 +18948,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="6" ht="41.25" customHeight="1">
@@ -18379,7 +18956,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="7" ht="27.75" customHeight="1">
@@ -18387,7 +18964,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="8" ht="27.75" customHeight="1">
@@ -18395,7 +18972,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1"/>
@@ -18416,7 +18993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -18435,11 +19012,11 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="B1" s="4" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1">
@@ -18447,16 +19024,16 @@
         <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
@@ -18464,16 +19041,16 @@
         <v/>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="C3" s="35" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1173</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="4" ht="24.75" customHeight="1">
@@ -18481,16 +19058,16 @@
         <v/>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="C4" s="35" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>1173</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="5" ht="27.75" customHeight="1">
@@ -18498,19 +19075,19 @@
         <v>153</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>1173</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="G5" s="4">
         <v/>
@@ -18521,19 +19098,19 @@
         <v/>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
   </sheetData>
@@ -18543,7 +19120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -18559,555 +19136,14 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="174.6650390625" customWidth="1" style="18"/>
-    <col min="2" max="2" width="15.0205078125" customWidth="1"/>
-    <col min="6" max="6" width="15.8173828125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="18" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="18" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="72" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="72"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="72" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="10" ht="189.75" customHeight="1">
-      <c r="A10" s="196" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="11" ht="162.75" customHeight="1">
-      <c r="A11" s="197" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B11" s="4">
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="25" ht="95.25" customHeight="1">
-      <c r="A25" s="198" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="29" ht="41.25" customHeight="1">
-      <c r="A29" s="199" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="30" ht="54.75" customHeight="1">
-      <c r="A30" s="200" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="5"/>
-    </row>
-    <row r="32" ht="27.75" customHeight="1">
-      <c r="A32" s="201" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="33" ht="27.75" customHeight="1">
-      <c r="A33" s="202" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="18" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="18" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="74" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="18" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="18" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="18" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="18" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="64" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="64" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="64" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="64" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="18" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="18" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="18" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="203" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B54" s="72" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C54" s="72" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D54" s="72" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E54" s="72" t="s">
-        <v>1217</v>
-      </c>
-      <c r="F54" s="72" t="s">
-        <v>1218</v>
-      </c>
-      <c r="G54" s="72" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="5"/>
-      <c r="B55" s="72" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="72" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G55" s="72" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="5"/>
-      <c r="B56" s="72" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="72" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G56" s="72" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="5"/>
-      <c r="B57" s="72" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C57" s="72"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="72" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G57" s="72" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="5"/>
-      <c r="B58" s="72" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="72" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G58" s="72" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="5"/>
-      <c r="B59" s="72" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="72" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G59" s="72" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="60" ht="23.795454545454547" customHeight="1">
-      <c r="A60" s="5"/>
-      <c r="B60" s="72" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="72" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G60" s="72" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="61" ht="13.5" customHeight="1">
-      <c r="A61" s="5"/>
-    </row>
-    <row r="62" ht="41.25" customHeight="1">
-      <c r="A62" s="204" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B62" s="36" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D62" s="36" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E62" s="36" t="s">
-        <v>1216</v>
-      </c>
-      <c r="F62" s="36" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G62" s="36" t="s">
-        <v>1218</v>
-      </c>
-      <c r="H62" s="36" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="5" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D63" s="36" t="s">
-        <v>1233</v>
-      </c>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H63" s="36" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="5"/>
-      <c r="B64" s="36" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C64" s="36" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D64" s="36" t="s">
-        <v>1233</v>
-      </c>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H64" s="36" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="65" ht="13.5" customHeight="1">
-      <c r="A65" s="5"/>
-      <c r="B65" s="72"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72"/>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="18" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B66" s="72"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="72"/>
-    </row>
-    <row r="67" ht="13.5" customHeight="1">
-      <c r="B67" s="72"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-    </row>
-    <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="18" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B68" s="72"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="72"/>
-    </row>
-    <row r="72" ht="216.75" customHeight="1">
-      <c r="A72" s="205" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="74" ht="54.75" customHeight="1">
-      <c r="A74" s="206" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="18" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="81" ht="68.25" customHeight="1">
-      <c r="A81" s="207" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B81" s="4">
-        <v/>
-      </c>
-    </row>
-    <row r="90" ht="13.5" customHeight="1">
-      <c r="A90" s="5" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="91" ht="95.25" customHeight="1">
-      <c r="A91" s="208" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="92" ht="13.5" customHeight="1">
-      <c r="A92" s="5" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="93" ht="13.5" customHeight="1">
-      <c r="A93" s="5" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="94" ht="13.5" customHeight="1">
-      <c r="A94" s="5" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="95" ht="13.5" customHeight="1">
-      <c r="A95" s="5" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="96" ht="13.5" customHeight="1">
-      <c r="A96" s="5" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="97" ht="13.5" customHeight="1">
-      <c r="A97" s="5" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="98" ht="13.5" customHeight="1">
-      <c r="A98" s="5" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="99" ht="13.5" customHeight="1">
-      <c r="A99" s="5" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="100" ht="13.5" customHeight="1">
-      <c r="A100" s="5" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="101" ht="13.5" customHeight="1">
-      <c r="A101" s="5" t="s">
-        <v>994</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A54:A60"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>